--- a/data/Solar PV projections.xlsx
+++ b/data/Solar PV projections.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michd/Dropbox (Personal)/git/solarLearning/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganghe/Documents/GitHub/solar-learning-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0F0501-DCC0-4E47-B5FA-740C787C2B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC3263F-423F-714C-8BCA-921EFC512145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{58C51ACD-8A44-E641-8A0D-F7E2B2C1259D}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16600" xr2:uid="{58C51ACD-8A44-E641-8A0D-F7E2B2C1259D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Capacity</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>pg. 353</t>
+  </si>
+  <si>
+    <t>pg. 345</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>pg. 365</t>
+  </si>
+  <si>
+    <t>pg. 397</t>
+  </si>
+  <si>
+    <t>pg.198</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/deebef5d-0c34-4539-9d0c-10b13d840027/NetZeroby2050-ARoadmapfortheGlobalEnergySector_CORR.pdf</t>
+  </si>
+  <si>
+    <t>https://iea.blob.core.windows.net/assets/a72d8abf-de08-4385-8711-b8a062d6124a/WEO2020.pdf</t>
+  </si>
+  <si>
+    <t>https://nap.nationalacademies.org/catalog/25932/accelerating-decarbonization-of-the-us-energy-system</t>
+  </si>
+  <si>
+    <t>Ch. 5, pg. 75</t>
   </si>
 </sst>
 </file>
@@ -104,9 +137,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C1407D-03E2-004D-8BEB-01DD0EDE1887}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="251" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="251" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,12 +468,15 @@
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -449,8 +486,11 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -460,8 +500,11 @@
       <c r="D3">
         <v>3125</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -471,8 +514,11 @@
       <c r="D4">
         <v>5891</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -480,10 +526,13 @@
         <v>2030</v>
       </c>
       <c r="D5">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -491,10 +540,13 @@
         <v>2040</v>
       </c>
       <c r="D6">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>751</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -504,8 +556,11 @@
       <c r="D7">
         <v>1106</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -515,82 +570,131 @@
       <c r="D8">
         <v>2124</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2030</v>
+      </c>
+      <c r="D9">
+        <v>465</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2040</v>
+      </c>
+      <c r="D10">
+        <v>624</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>2030</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2030</v>
-      </c>
-      <c r="D16">
-        <v>4956</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2040</v>
-      </c>
-      <c r="D17">
-        <v>10980</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18">
+        <v>2030</v>
+      </c>
+      <c r="D18">
+        <v>4956</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2040</v>
+      </c>
+      <c r="D19">
+        <v>10980</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
         <v>2050</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>14458</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
